--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/11,25/25,11,25 Ост КИ филиалы/дв 25,11,25 млрсч ост ки от Холодова.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/11,25/25,11,25 Ост КИ филиалы/дв 25,11,25 млрсч ост ки от Холодова.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\25,11,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\11,25\25,11,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADC21F3-4183-40EB-80BC-AB74E668C7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1E3AF1-4B85-4047-A905-0C4BB543140C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="149">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -510,6 +510,9 @@
   <si>
     <t>01,12,</t>
   </si>
+  <si>
+    <t>ротация на 7382</t>
+  </si>
 </sst>
 </file>
 
@@ -975,7 +978,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
+      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1702,7 @@
       </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1">
-        <f t="shared" ref="AK7:AL70" si="11">G7*V7</f>
+        <f t="shared" ref="AK7:AK70" si="11">G7*V7</f>
         <v>0</v>
       </c>
       <c r="AL7" s="1">
@@ -3132,7 +3135,9 @@
       <c r="AI18" s="1">
         <v>47.2</v>
       </c>
-      <c r="AJ18" s="1"/>
+      <c r="AJ18" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="AK18" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -10016,7 +10021,7 @@
       </c>
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1">
-        <f t="shared" ref="AK71:AL95" si="39">G71*V71</f>
+        <f t="shared" ref="AK71:AK95" si="39">G71*V71</f>
         <v>18</v>
       </c>
       <c r="AL71" s="1">
